--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/41/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/41/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.41533</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3415.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.123988</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.90851</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3908.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155018</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>4.2742</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>4274.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185994</v>
       </c>
       <c r="B8" t="n">
-        <v>6.66633</v>
+        <v>4.375319999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>6666.33</v>
+        <v>4375.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216971</v>
       </c>
       <c r="B9" t="n">
-        <v>7.15076</v>
+        <v>4.42146</v>
       </c>
       <c r="C9" t="n">
-        <v>7150.76</v>
+        <v>4421.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247947</v>
       </c>
       <c r="B10" t="n">
-        <v>7.58255</v>
+        <v>4.448630000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>7582.55</v>
+        <v>4448.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278891</v>
+        <v>0.278875</v>
       </c>
       <c r="B11" t="n">
-        <v>7.84163</v>
+        <v>4.47196</v>
       </c>
       <c r="C11" t="n">
-        <v>7841.63</v>
+        <v>4471.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309816</v>
+        <v>0.3098</v>
       </c>
       <c r="B12" t="n">
-        <v>8.059060000000001</v>
+        <v>4.49313</v>
       </c>
       <c r="C12" t="n">
-        <v>8059.06</v>
+        <v>4493.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340741</v>
+        <v>0.340725</v>
       </c>
       <c r="B13" t="n">
-        <v>8.20327</v>
+        <v>4.51204</v>
       </c>
       <c r="C13" t="n">
-        <v>8203.27</v>
+        <v>4512.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371666</v>
+        <v>0.37165</v>
       </c>
       <c r="B14" t="n">
-        <v>8.322700000000001</v>
+        <v>4.530390000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>8322.700000000001</v>
+        <v>4530.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402591</v>
+        <v>0.402575</v>
       </c>
       <c r="B15" t="n">
-        <v>8.38401</v>
+        <v>4.54728</v>
       </c>
       <c r="C15" t="n">
-        <v>8384.01</v>
+        <v>4547.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433516</v>
+        <v>0.4335</v>
       </c>
       <c r="B16" t="n">
-        <v>8.408799999999999</v>
+        <v>4.56413</v>
       </c>
       <c r="C16" t="n">
-        <v>8408.799999999999</v>
+        <v>4564.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464441</v>
+        <v>0.464425</v>
       </c>
       <c r="B17" t="n">
-        <v>8.40405</v>
+        <v>4.57972</v>
       </c>
       <c r="C17" t="n">
-        <v>8404.049999999999</v>
+        <v>4579.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495366</v>
+        <v>0.49535</v>
       </c>
       <c r="B18" t="n">
-        <v>8.384219999999999</v>
+        <v>4.59516</v>
       </c>
       <c r="C18" t="n">
-        <v>8384.219999999999</v>
+        <v>4595.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526291</v>
+        <v>0.526275</v>
       </c>
       <c r="B19" t="n">
-        <v>8.355840000000001</v>
+        <v>4.609649999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>8355.84</v>
+        <v>4609.65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557216</v>
+        <v>0.5572</v>
       </c>
       <c r="B20" t="n">
-        <v>8.32423</v>
+        <v>4.62386</v>
       </c>
       <c r="C20" t="n">
-        <v>8324.23</v>
+        <v>4623.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588141</v>
+        <v>0.588125</v>
       </c>
       <c r="B21" t="n">
-        <v>8.29022</v>
+        <v>4.63749</v>
       </c>
       <c r="C21" t="n">
-        <v>8290.219999999999</v>
+        <v>4637.49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619167</v>
       </c>
       <c r="B22" t="n">
-        <v>8.254239999999999</v>
+        <v>4.6508</v>
       </c>
       <c r="C22" t="n">
-        <v>8254.24</v>
+        <v>4650.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650356</v>
+        <v>0.65034</v>
       </c>
       <c r="B23" t="n">
-        <v>8.216569999999999</v>
+        <v>4.66376</v>
       </c>
       <c r="C23" t="n">
-        <v>8216.57</v>
+        <v>4663.76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.681512</v>
       </c>
       <c r="B24" t="n">
-        <v>8.17759</v>
+        <v>4.676310000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>8177.59</v>
+        <v>4676.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.712689</v>
       </c>
       <c r="B25" t="n">
-        <v>8.136900000000001</v>
+        <v>4.68855</v>
       </c>
       <c r="C25" t="n">
-        <v>8136.9</v>
+        <v>4688.55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743878</v>
+        <v>0.743862</v>
       </c>
       <c r="B26" t="n">
-        <v>8.092840000000001</v>
+        <v>4.70042</v>
       </c>
       <c r="C26" t="n">
-        <v>8092.84</v>
+        <v>4700.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775055</v>
+        <v>0.775039</v>
       </c>
       <c r="B27" t="n">
-        <v>8.04584</v>
+        <v>4.712020000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>8045.84</v>
+        <v>4712.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.806211</v>
       </c>
       <c r="B28" t="n">
-        <v>7.99664</v>
+        <v>4.72333</v>
       </c>
       <c r="C28" t="n">
-        <v>7996.64</v>
+        <v>4723.33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8374</v>
+        <v>0.837384</v>
       </c>
       <c r="B29" t="n">
-        <v>7.9443</v>
+        <v>4.73437</v>
       </c>
       <c r="C29" t="n">
-        <v>7944.3</v>
+        <v>4734.37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868577</v>
+        <v>0.868561</v>
       </c>
       <c r="B30" t="n">
-        <v>7.88912</v>
+        <v>4.74514</v>
       </c>
       <c r="C30" t="n">
-        <v>7889.12</v>
+        <v>4745.14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899733</v>
       </c>
       <c r="B31" t="n">
-        <v>7.83063</v>
+        <v>4.75567</v>
       </c>
       <c r="C31" t="n">
-        <v>7830.63</v>
+        <v>4755.67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930922</v>
+        <v>0.930906</v>
       </c>
       <c r="B32" t="n">
-        <v>7.76968</v>
+        <v>4.76602</v>
       </c>
       <c r="C32" t="n">
-        <v>7769.68</v>
+        <v>4766.02</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962099</v>
+        <v>0.962083</v>
       </c>
       <c r="B33" t="n">
-        <v>7.70584</v>
+        <v>4.77616</v>
       </c>
       <c r="C33" t="n">
-        <v>7705.84</v>
+        <v>4776.16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993255</v>
       </c>
       <c r="B34" t="n">
-        <v>7.6383</v>
+        <v>4.78607</v>
       </c>
       <c r="C34" t="n">
-        <v>7638.3</v>
+        <v>4786.07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02456</v>
       </c>
       <c r="B35" t="n">
-        <v>7.568840000000001</v>
+        <v>4.79576</v>
       </c>
       <c r="C35" t="n">
-        <v>7568.84</v>
+        <v>4795.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05594</v>
       </c>
       <c r="B36" t="n">
-        <v>7.494770000000001</v>
+        <v>4.80529</v>
       </c>
       <c r="C36" t="n">
-        <v>7494.77</v>
+        <v>4805.29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08732</v>
       </c>
       <c r="B37" t="n">
-        <v>7.41922</v>
+        <v>4.81466</v>
       </c>
       <c r="C37" t="n">
-        <v>7419.22</v>
+        <v>4814.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.1187</v>
       </c>
       <c r="B38" t="n">
-        <v>7.33936</v>
+        <v>4.82386</v>
       </c>
       <c r="C38" t="n">
-        <v>7339.36</v>
+        <v>4823.86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15</v>
+        <v>1.15008</v>
       </c>
       <c r="B39" t="n">
-        <v>4.63293</v>
+        <v>4.8329</v>
       </c>
       <c r="C39" t="n">
-        <v>4632.93</v>
+        <v>4832.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18072</v>
+        <v>1.18146</v>
       </c>
       <c r="B40" t="n">
-        <v>5.7429</v>
+        <v>4.841760000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>5742.9</v>
+        <v>4841.76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21194</v>
+        <v>1.21285</v>
       </c>
       <c r="B41" t="n">
-        <v>6.476979999999999</v>
+        <v>4.85046</v>
       </c>
       <c r="C41" t="n">
-        <v>6476.98</v>
+        <v>4850.46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24319</v>
+        <v>1.24422</v>
       </c>
       <c r="B42" t="n">
-        <v>6.92384</v>
+        <v>4.85902</v>
       </c>
       <c r="C42" t="n">
-        <v>6923.84</v>
+        <v>4859.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27429</v>
+        <v>1.2756</v>
       </c>
       <c r="B43" t="n">
-        <v>6.986689999999999</v>
+        <v>4.867439999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>6986.69</v>
+        <v>4867.44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30488</v>
+        <v>1.30699</v>
       </c>
       <c r="B44" t="n">
-        <v>6.88641</v>
+        <v>4.87574</v>
       </c>
       <c r="C44" t="n">
-        <v>6886.41</v>
+        <v>4875.74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3364</v>
+        <v>1.33798</v>
       </c>
       <c r="B45" t="n">
-        <v>6.7744</v>
+        <v>4.8839</v>
       </c>
       <c r="C45" t="n">
-        <v>6774.4</v>
+        <v>4883.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36758</v>
+        <v>1.36895</v>
       </c>
       <c r="B46" t="n">
-        <v>6.69511</v>
+        <v>4.8919</v>
       </c>
       <c r="C46" t="n">
-        <v>6695.11</v>
+        <v>4891.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39874</v>
+        <v>1.39992</v>
       </c>
       <c r="B47" t="n">
-        <v>6.614770000000001</v>
+        <v>4.89979</v>
       </c>
       <c r="C47" t="n">
-        <v>6614.77</v>
+        <v>4899.79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42991</v>
+        <v>1.43088</v>
       </c>
       <c r="B48" t="n">
-        <v>6.46891</v>
+        <v>4.90753</v>
       </c>
       <c r="C48" t="n">
-        <v>6468.91</v>
+        <v>4907.53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46108</v>
+        <v>1.46185</v>
       </c>
       <c r="B49" t="n">
-        <v>6.37579</v>
+        <v>4.91517</v>
       </c>
       <c r="C49" t="n">
-        <v>6375.79</v>
+        <v>4915.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49224</v>
+        <v>1.49282</v>
       </c>
       <c r="B50" t="n">
-        <v>6.29675</v>
+        <v>4.92267</v>
       </c>
       <c r="C50" t="n">
-        <v>6296.75</v>
+        <v>4922.67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.5234</v>
+        <v>1.52379</v>
       </c>
       <c r="B51" t="n">
-        <v>6.21855</v>
+        <v>4.93009</v>
       </c>
       <c r="C51" t="n">
-        <v>6218.55</v>
+        <v>4930.09</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55457</v>
+        <v>1.55476</v>
       </c>
       <c r="B52" t="n">
-        <v>6.07409</v>
+        <v>4.937399999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>6074.09</v>
+        <v>4937.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58573</v>
+        <v>1.58572</v>
       </c>
       <c r="B53" t="n">
-        <v>6.03971</v>
+        <v>4.94459</v>
       </c>
       <c r="C53" t="n">
-        <v>6039.71</v>
+        <v>4944.59</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6169</v>
+        <v>1.61669</v>
       </c>
       <c r="B54" t="n">
-        <v>5.896430000000001</v>
+        <v>4.951680000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>5896.43</v>
+        <v>4951.68</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64807</v>
+        <v>1.64766</v>
       </c>
       <c r="B55" t="n">
-        <v>5.78095</v>
+        <v>4.95866</v>
       </c>
       <c r="C55" t="n">
-        <v>5780.95</v>
+        <v>4958.66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67921</v>
+        <v>1.67847</v>
       </c>
       <c r="B56" t="n">
-        <v>5.6723</v>
+        <v>4.96554</v>
       </c>
       <c r="C56" t="n">
-        <v>5672.3</v>
+        <v>4965.54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70997</v>
+        <v>1.70903</v>
       </c>
       <c r="B57" t="n">
-        <v>5.60507</v>
+        <v>4.97233</v>
       </c>
       <c r="C57" t="n">
-        <v>5605.07</v>
+        <v>4972.33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74115</v>
+        <v>1.73958</v>
       </c>
       <c r="B58" t="n">
-        <v>5.5036</v>
+        <v>4.97902</v>
       </c>
       <c r="C58" t="n">
-        <v>5503.6</v>
+        <v>4979.02</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7719</v>
+        <v>1.77014</v>
       </c>
       <c r="B59" t="n">
-        <v>5.41386</v>
+        <v>4.98564</v>
       </c>
       <c r="C59" t="n">
-        <v>5413.86</v>
+        <v>4985.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80319</v>
+        <v>1.8007</v>
       </c>
       <c r="B60" t="n">
-        <v>5.31284</v>
+        <v>4.99215</v>
       </c>
       <c r="C60" t="n">
-        <v>5312.84</v>
+        <v>4992.15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83381</v>
+        <v>1.83125</v>
       </c>
       <c r="B61" t="n">
-        <v>5.21839</v>
+        <v>4.99856</v>
       </c>
       <c r="C61" t="n">
-        <v>5218.39</v>
+        <v>4998.56</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86524</v>
+        <v>1.8618</v>
       </c>
       <c r="B62" t="n">
-        <v>5.15046</v>
+        <v>5.00491</v>
       </c>
       <c r="C62" t="n">
-        <v>5150.46</v>
+        <v>5004.91</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89603</v>
+        <v>1.89236</v>
       </c>
       <c r="B63" t="n">
-        <v>5.06229</v>
+        <v>5.01118</v>
       </c>
       <c r="C63" t="n">
-        <v>5062.29</v>
+        <v>5011.18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92717</v>
+        <v>1.92313</v>
       </c>
       <c r="B64" t="n">
-        <v>4.98249</v>
+        <v>5.01741</v>
       </c>
       <c r="C64" t="n">
-        <v>4982.49</v>
+        <v>5017.41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95823</v>
+        <v>1.9547</v>
       </c>
       <c r="B65" t="n">
-        <v>4.90098</v>
+        <v>5.02372</v>
       </c>
       <c r="C65" t="n">
-        <v>4900.98</v>
+        <v>5023.72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98878</v>
+        <v>1.98627</v>
       </c>
       <c r="B66" t="n">
-        <v>4.84423</v>
+        <v>5.02995</v>
       </c>
       <c r="C66" t="n">
-        <v>4844.23</v>
+        <v>5029.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02028</v>
+        <v>2.01784</v>
       </c>
       <c r="B67" t="n">
-        <v>4.75035</v>
+        <v>5.0361</v>
       </c>
       <c r="C67" t="n">
-        <v>4750.35</v>
+        <v>5036.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0519</v>
+        <v>2.04942</v>
       </c>
       <c r="B68" t="n">
-        <v>4.69991</v>
+        <v>5.04218</v>
       </c>
       <c r="C68" t="n">
-        <v>4699.91</v>
+        <v>5042.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08353</v>
+        <v>2.08099</v>
       </c>
       <c r="B69" t="n">
-        <v>4.62569</v>
+        <v>5.04818</v>
       </c>
       <c r="C69" t="n">
-        <v>4625.69</v>
+        <v>5048.18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11452</v>
+        <v>2.11257</v>
       </c>
       <c r="B70" t="n">
-        <v>4.56578</v>
+        <v>5.05411</v>
       </c>
       <c r="C70" t="n">
-        <v>4565.78</v>
+        <v>5054.11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14493</v>
+        <v>2.14414</v>
       </c>
       <c r="B71" t="n">
-        <v>4.49496</v>
+        <v>5.05999</v>
       </c>
       <c r="C71" t="n">
-        <v>4494.96</v>
+        <v>5059.99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17533</v>
+        <v>2.17571</v>
       </c>
       <c r="B72" t="n">
-        <v>4.44955</v>
+        <v>5.06575</v>
       </c>
       <c r="C72" t="n">
-        <v>4449.55</v>
+        <v>5065.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20573</v>
+        <v>2.20729</v>
       </c>
       <c r="B73" t="n">
-        <v>4.38969</v>
+        <v>5.07146</v>
       </c>
       <c r="C73" t="n">
-        <v>4389.69</v>
+        <v>5071.46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23614</v>
+        <v>2.23886</v>
       </c>
       <c r="B74" t="n">
-        <v>4.34986</v>
+        <v>5.07709</v>
       </c>
       <c r="C74" t="n">
-        <v>4349.86</v>
+        <v>5077.09</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26656</v>
+        <v>2.27043</v>
       </c>
       <c r="B75" t="n">
-        <v>4.28337</v>
+        <v>5.08266</v>
       </c>
       <c r="C75" t="n">
-        <v>4283.37</v>
+        <v>5082.66</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29724</v>
+        <v>2.30127</v>
       </c>
       <c r="B76" t="n">
-        <v>4.24137</v>
+        <v>5.08815</v>
       </c>
       <c r="C76" t="n">
-        <v>4241.37</v>
+        <v>5088.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32796</v>
+        <v>2.33199</v>
       </c>
       <c r="B77" t="n">
-        <v>4.189760000000001</v>
+        <v>5.09357</v>
       </c>
       <c r="C77" t="n">
-        <v>4189.76</v>
+        <v>5093.57</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35868</v>
+        <v>2.36271</v>
       </c>
       <c r="B78" t="n">
-        <v>4.14022</v>
+        <v>5.098920000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>4140.22</v>
+        <v>5098.92</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38941</v>
+        <v>2.39343</v>
       </c>
       <c r="B79" t="n">
-        <v>4.076420000000001</v>
+        <v>5.104220000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>4076.42</v>
+        <v>5104.22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42083</v>
+        <v>2.42415</v>
       </c>
       <c r="B80" t="n">
-        <v>4.04698</v>
+        <v>5.109439999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>4046.98</v>
+        <v>5109.44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45192</v>
+        <v>2.45487</v>
       </c>
       <c r="B81" t="n">
-        <v>4.00867</v>
+        <v>5.11462</v>
       </c>
       <c r="C81" t="n">
-        <v>4008.67</v>
+        <v>5114.62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.483</v>
+        <v>2.48559</v>
       </c>
       <c r="B82" t="n">
-        <v>3.96378</v>
+        <v>5.11973</v>
       </c>
       <c r="C82" t="n">
-        <v>3963.78</v>
+        <v>5119.73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51396</v>
+        <v>2.51631</v>
       </c>
       <c r="B83" t="n">
-        <v>3.92429</v>
+        <v>5.12479</v>
       </c>
       <c r="C83" t="n">
-        <v>3924.29</v>
+        <v>5124.79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54372</v>
+        <v>2.54703</v>
       </c>
       <c r="B84" t="n">
-        <v>3.93057</v>
+        <v>5.12979</v>
       </c>
       <c r="C84" t="n">
-        <v>3930.57</v>
+        <v>5129.79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57661</v>
+        <v>2.57775</v>
       </c>
       <c r="B85" t="n">
-        <v>3.92725</v>
+        <v>5.134729999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>3927.25</v>
+        <v>5134.73</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60988</v>
+        <v>2.60847</v>
       </c>
       <c r="B86" t="n">
-        <v>3.92996</v>
+        <v>5.13962</v>
       </c>
       <c r="C86" t="n">
-        <v>3929.96</v>
+        <v>5139.62</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64316</v>
+        <v>2.63919</v>
       </c>
       <c r="B87" t="n">
-        <v>3.91237</v>
+        <v>5.144439999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>3912.37</v>
+        <v>5144.44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67644</v>
+        <v>2.66991</v>
       </c>
       <c r="B88" t="n">
-        <v>3.88548</v>
+        <v>5.1492</v>
       </c>
       <c r="C88" t="n">
-        <v>3885.48</v>
+        <v>5149.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70762</v>
+        <v>2.70063</v>
       </c>
       <c r="B89" t="n">
-        <v>3.87491</v>
+        <v>5.15391</v>
       </c>
       <c r="C89" t="n">
-        <v>3874.91</v>
+        <v>5153.91</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73837</v>
+        <v>2.73135</v>
       </c>
       <c r="B90" t="n">
-        <v>3.87344</v>
+        <v>5.15856</v>
       </c>
       <c r="C90" t="n">
-        <v>3873.44</v>
+        <v>5158.56</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76909</v>
+        <v>2.76207</v>
       </c>
       <c r="B91" t="n">
-        <v>3.85893</v>
+        <v>5.163180000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>3858.93</v>
+        <v>5163.18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79981</v>
+        <v>2.79279</v>
       </c>
       <c r="B92" t="n">
-        <v>3.83611</v>
+        <v>5.16773</v>
       </c>
       <c r="C92" t="n">
-        <v>3836.11</v>
+        <v>5167.73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83053</v>
+        <v>2.82351</v>
       </c>
       <c r="B93" t="n">
-        <v>3.8198</v>
+        <v>5.17223</v>
       </c>
       <c r="C93" t="n">
-        <v>3819.8</v>
+        <v>5172.23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86125</v>
+        <v>2.85423</v>
       </c>
       <c r="B94" t="n">
-        <v>3.80657</v>
+        <v>5.17669</v>
       </c>
       <c r="C94" t="n">
-        <v>3806.57</v>
+        <v>5176.69</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89197</v>
+        <v>2.88495</v>
       </c>
       <c r="B95" t="n">
-        <v>3.8014</v>
+        <v>5.181109999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>3801.4</v>
+        <v>5181.11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92187</v>
+        <v>2.91567</v>
       </c>
       <c r="B96" t="n">
-        <v>3.78914</v>
+        <v>5.18549</v>
       </c>
       <c r="C96" t="n">
-        <v>3789.14</v>
+        <v>5185.49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95014</v>
+        <v>2.94639</v>
       </c>
       <c r="B97" t="n">
-        <v>3.75624</v>
+        <v>5.18981</v>
       </c>
       <c r="C97" t="n">
-        <v>3756.24</v>
+        <v>5189.81</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97833</v>
+        <v>2.97711</v>
       </c>
       <c r="B98" t="n">
-        <v>3.74066</v>
+        <v>5.194109999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>3740.66</v>
+        <v>5194.11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00649</v>
+        <v>3.00783</v>
       </c>
       <c r="B99" t="n">
-        <v>3.73102</v>
+        <v>5.19835</v>
       </c>
       <c r="C99" t="n">
-        <v>3731.02</v>
+        <v>5198.35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03465</v>
+        <v>3.03855</v>
       </c>
       <c r="B100" t="n">
-        <v>3.70647</v>
+        <v>5.202529999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>3706.47</v>
+        <v>5202.53</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06281</v>
+        <v>3.06927</v>
       </c>
       <c r="B101" t="n">
-        <v>3.71138</v>
+        <v>5.20665</v>
       </c>
       <c r="C101" t="n">
-        <v>3711.38</v>
+        <v>5206.65</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09593</v>
+        <v>3.09999</v>
       </c>
       <c r="B102" t="n">
-        <v>3.68446</v>
+        <v>5.21072</v>
       </c>
       <c r="C102" t="n">
-        <v>3684.46</v>
+        <v>5210.72</v>
       </c>
     </row>
   </sheetData>
